--- a/KAVAC TALENTO HUMANO/formatos carga masiva/datos-financieros.xlsx
+++ b/KAVAC TALENTO HUMANO/formatos carga masiva/datos-financieros.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>cedula_de_identidad</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>numero_de_cuenta</t>
+  </si>
+  <si>
+    <t>BANCO DE VENEZUELA S.A.C.A. BANCO UNIVERSAL</t>
+  </si>
+  <si>
+    <t>AHORRO</t>
+  </si>
+  <si>
+    <t>01020373240100092366</t>
   </si>
   <si>
     <t>Banco</t>
@@ -46,12 +55,6 @@
   </si>
   <si>
     <t>BANCO INDUSTRIAL DE VENEZUELA, C.A. BANCO UNIVERSAL</t>
-  </si>
-  <si>
-    <t>AHORRO</t>
-  </si>
-  <si>
-    <t>BANCO DE VENEZUELA S.A.C.A. BANCO UNIVERSAL</t>
   </si>
   <si>
     <t>VENEZOLANO DE CRÉDITO, S.A. BANCO UNIVERSAL</t>
@@ -481,9 +484,9 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="51.845" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="24.708" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -501,8 +504,18 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="A2">
+        <v>18456345</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3"/>
@@ -20535,166 +20548,166 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
